--- a/ONCHO/Entomological survey Survey/Nigeria/2023/july/ng_oncho_stop_3_rdtov16_202307_kano.xlsx
+++ b/ONCHO/Entomological survey Survey/Nigeria/2023/july/ng_oncho_stop_3_rdtov16_202307_kano.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Entomological survey Survey\Nigeria\2023\june\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Entomological survey Survey\Nigeria\2023\july\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9EB8FED-908C-4B6B-9088-84E9B9E726CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91586BFD-8D5F-4495-9615-01B01927212F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="160">
   <si>
     <t>type</t>
   </si>
@@ -303,165 +303,6 @@
     <t>English</t>
   </si>
   <si>
-    <t>BAUCHI</t>
-  </si>
-  <si>
-    <t>ALKALERI</t>
-  </si>
-  <si>
-    <t>BOGORO</t>
-  </si>
-  <si>
-    <t>DARAZO</t>
-  </si>
-  <si>
-    <t>DASS</t>
-  </si>
-  <si>
-    <t>GAMAWA</t>
-  </si>
-  <si>
-    <t>GANJUWA</t>
-  </si>
-  <si>
-    <t>GIADE</t>
-  </si>
-  <si>
-    <t>KIRFI</t>
-  </si>
-  <si>
-    <t>MISAU</t>
-  </si>
-  <si>
-    <t>NINGI</t>
-  </si>
-  <si>
-    <t>SHIRA</t>
-  </si>
-  <si>
-    <t>TAFAWA-BALEWA</t>
-  </si>
-  <si>
-    <t>TORO</t>
-  </si>
-  <si>
-    <t>WARJI</t>
-  </si>
-  <si>
-    <t>ZAKI</t>
-  </si>
-  <si>
-    <t>BAKUREJI</t>
-  </si>
-  <si>
-    <t>DAGARAU</t>
-  </si>
-  <si>
-    <t>KWALA</t>
-  </si>
-  <si>
-    <t>YELWAN GALAMBI</t>
-  </si>
-  <si>
-    <t>BIRIM</t>
-  </si>
-  <si>
-    <t>MIRI</t>
-  </si>
-  <si>
-    <t>DOGON KANYA</t>
-  </si>
-  <si>
-    <t>SABON GARI(YAUTARE)</t>
-  </si>
-  <si>
-    <t>DANGRI</t>
-  </si>
-  <si>
-    <t>LARIYE</t>
-  </si>
-  <si>
-    <t>DADINGA</t>
-  </si>
-  <si>
-    <t>MIYA B(ZARA)</t>
-  </si>
-  <si>
-    <t>NASARAWA</t>
-  </si>
-  <si>
-    <t>CHINKANI</t>
-  </si>
-  <si>
-    <t>BARA</t>
-  </si>
-  <si>
-    <t>BUNDURU</t>
-  </si>
-  <si>
-    <t>PAPAN FULANI</t>
-  </si>
-  <si>
-    <t>ZINDI</t>
-  </si>
-  <si>
-    <t>KAFIN LEMO</t>
-  </si>
-  <si>
-    <t>KAFIN ZAKI</t>
-  </si>
-  <si>
-    <t>RAFIN CHIYAWA</t>
-  </si>
-  <si>
-    <t>SAMA</t>
-  </si>
-  <si>
-    <t>UNGUWAR MADAKI</t>
-  </si>
-  <si>
-    <t>BANGIRE</t>
-  </si>
-  <si>
-    <t>DINDIBUS</t>
-  </si>
-  <si>
-    <t>DISINA B</t>
-  </si>
-  <si>
-    <t>ZIGAU</t>
-  </si>
-  <si>
-    <t>KARDAM B(BOTO)</t>
-  </si>
-  <si>
-    <t>GUMAU</t>
-  </si>
-  <si>
-    <t>LAME</t>
-  </si>
-  <si>
-    <t>RISHI</t>
-  </si>
-  <si>
-    <t>RUHU</t>
-  </si>
-  <si>
-    <t>GABANGA A</t>
-  </si>
-  <si>
-    <t>SANDIGALAU</t>
-  </si>
-  <si>
-    <t>TIKIRZE</t>
-  </si>
-  <si>
-    <t>(2023 July) - 10. (Bauchi) ELISA Form</t>
-  </si>
-  <si>
-    <t>ng_oncho_stop_10_elisa_202206_bauchy</t>
-  </si>
-  <si>
     <t>decimal</t>
   </si>
   <si>
@@ -481,6 +322,186 @@
   </si>
   <si>
     <t>ELISA - Final decision</t>
+  </si>
+  <si>
+    <t>ng_oncho_stop_3_rdtov16_202307_kano</t>
+  </si>
+  <si>
+    <t>(2023 July) - 10. (Kano) ELISA Form</t>
+  </si>
+  <si>
+    <t>KANO</t>
+  </si>
+  <si>
+    <t>AJINGI</t>
+  </si>
+  <si>
+    <t>ALBASU</t>
+  </si>
+  <si>
+    <t>BEBEJI</t>
+  </si>
+  <si>
+    <t>BICHI</t>
+  </si>
+  <si>
+    <t>DAMBATTA</t>
+  </si>
+  <si>
+    <t>DAWAKIN KUDU</t>
+  </si>
+  <si>
+    <t>DOGUWA</t>
+  </si>
+  <si>
+    <t>GABASAWA</t>
+  </si>
+  <si>
+    <t>GAYA</t>
+  </si>
+  <si>
+    <t>KABIYA</t>
+  </si>
+  <si>
+    <t>KARAYE</t>
+  </si>
+  <si>
+    <t>KURA</t>
+  </si>
+  <si>
+    <t>MAKODA</t>
+  </si>
+  <si>
+    <t>ROGO</t>
+  </si>
+  <si>
+    <t>SHANONO</t>
+  </si>
+  <si>
+    <t>SUMAILA</t>
+  </si>
+  <si>
+    <t>TAKAI</t>
+  </si>
+  <si>
+    <t>TSANYAWA</t>
+  </si>
+  <si>
+    <t>TUDUN WADA</t>
+  </si>
+  <si>
+    <t>TUNDUN WADA</t>
+  </si>
+  <si>
+    <t>UNGONGO</t>
+  </si>
+  <si>
+    <t>SAYASAYA</t>
+  </si>
+  <si>
+    <t>DAMAYU</t>
+  </si>
+  <si>
+    <t>GARGAI</t>
+  </si>
+  <si>
+    <t>KUKI</t>
+  </si>
+  <si>
+    <t>TARAU</t>
+  </si>
+  <si>
+    <t>KYALLI</t>
+  </si>
+  <si>
+    <t>GWADAMA GARI</t>
+  </si>
+  <si>
+    <t>ZOGARAWA</t>
+  </si>
+  <si>
+    <t>DOGON - KAWO</t>
+  </si>
+  <si>
+    <t>RAGADA</t>
+  </si>
+  <si>
+    <t>RIRIWAI</t>
+  </si>
+  <si>
+    <t>SABUWAR KAURA</t>
+  </si>
+  <si>
+    <t>YARYASA</t>
+  </si>
+  <si>
+    <t>JODA</t>
+  </si>
+  <si>
+    <t>MAGAMA</t>
+  </si>
+  <si>
+    <t>UNGUWAR GANINKI</t>
+  </si>
+  <si>
+    <t>ZAMBUR</t>
+  </si>
+  <si>
+    <t>DURBA</t>
+  </si>
+  <si>
+    <t>KURUGU</t>
+  </si>
+  <si>
+    <t>UNGUWAN WUSAMA</t>
+  </si>
+  <si>
+    <t>AZOREN WAJE</t>
+  </si>
+  <si>
+    <t>GAMADAN</t>
+  </si>
+  <si>
+    <t>KWUHA</t>
+  </si>
+  <si>
+    <t>UNGWAN BARAU</t>
+  </si>
+  <si>
+    <t>DANKWADE</t>
+  </si>
+  <si>
+    <t>FARADACHI</t>
+  </si>
+  <si>
+    <t>FARIN DUTSE</t>
+  </si>
+  <si>
+    <t>MASSU</t>
+  </si>
+  <si>
+    <t>MASU</t>
+  </si>
+  <si>
+    <t>BAGWARO</t>
+  </si>
+  <si>
+    <t>KOGO</t>
+  </si>
+  <si>
+    <t>YAMUSAWA</t>
+  </si>
+  <si>
+    <t>KWARDAGWALLE</t>
+  </si>
+  <si>
+    <t>RUGURUGU</t>
+  </si>
+  <si>
+    <t>GAZOBI</t>
+  </si>
+  <si>
+    <t>YADA KUNYA</t>
   </si>
 </sst>
 </file>
@@ -916,7 +937,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -1208,13 +1229,13 @@
     </row>
     <row r="12" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1">
       <c r="A12" s="12" t="s">
-        <v>146</v>
+        <v>93</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>147</v>
+        <v>94</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>151</v>
+        <v>98</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="16"/>
@@ -1228,13 +1249,13 @@
     </row>
     <row r="13" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1">
       <c r="A13" s="12" t="s">
-        <v>150</v>
+        <v>97</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>148</v>
+        <v>95</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>152</v>
+        <v>99</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="16"/>
@@ -1324,11 +1345,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F115"/>
+  <dimension ref="A1:F122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A20" sqref="A20:A22"/>
+      <selection pane="bottomLeft" activeCell="A24" sqref="A24:XFD122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1558,7 +1579,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="4" t="s">
-        <v>149</v>
+        <v>96</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>67</v>
@@ -1569,7 +1590,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="4" t="s">
-        <v>149</v>
+        <v>96</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>68</v>
@@ -1580,7 +1601,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="4" t="s">
-        <v>149</v>
+        <v>96</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>69</v>
@@ -1599,10 +1620,10 @@
         <v>54</v>
       </c>
       <c r="B24" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="C24" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1610,13 +1631,13 @@
         <v>55</v>
       </c>
       <c r="B26" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="C26" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1624,13 +1645,13 @@
         <v>55</v>
       </c>
       <c r="B27" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="C27" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1638,13 +1659,13 @@
         <v>55</v>
       </c>
       <c r="B28" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="C28" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1652,13 +1673,13 @@
         <v>55</v>
       </c>
       <c r="B29" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="C29" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1666,13 +1687,13 @@
         <v>55</v>
       </c>
       <c r="B30" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="C30" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1680,13 +1701,13 @@
         <v>55</v>
       </c>
       <c r="B31" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="C31" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1694,13 +1715,13 @@
         <v>55</v>
       </c>
       <c r="B32" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="C32" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1708,13 +1729,13 @@
         <v>55</v>
       </c>
       <c r="B33" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C33" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1722,13 +1743,13 @@
         <v>55</v>
       </c>
       <c r="B34" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="C34" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1736,13 +1757,13 @@
         <v>55</v>
       </c>
       <c r="B35" t="s">
+        <v>112</v>
+      </c>
+      <c r="C35" t="s">
+        <v>112</v>
+      </c>
+      <c r="D35" s="10" t="s">
         <v>102</v>
-      </c>
-      <c r="C35" t="s">
-        <v>102</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1750,13 +1771,13 @@
         <v>55</v>
       </c>
       <c r="B36" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="C36" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="D36" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1764,13 +1785,13 @@
         <v>55</v>
       </c>
       <c r="B37" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="C37" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="D37" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1778,13 +1799,13 @@
         <v>55</v>
       </c>
       <c r="B38" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="C38" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="D38" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1792,13 +1813,13 @@
         <v>55</v>
       </c>
       <c r="B39" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="C39" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="D39" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1806,13 +1827,13 @@
         <v>55</v>
       </c>
       <c r="B40" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="C40" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D40" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1820,83 +1841,83 @@
         <v>55</v>
       </c>
       <c r="B41" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="C41" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D41" t="s">
-        <v>93</v>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>55</v>
+      </c>
+      <c r="B42" t="s">
+        <v>119</v>
+      </c>
+      <c r="C42" t="s">
+        <v>119</v>
+      </c>
+      <c r="D42" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B43" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="C43" t="s">
-        <v>109</v>
-      </c>
-      <c r="E43" t="s">
-        <v>94</v>
+        <v>120</v>
+      </c>
+      <c r="D43" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B44" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="C44" t="s">
-        <v>110</v>
-      </c>
-      <c r="E44" t="s">
-        <v>94</v>
+        <v>121</v>
+      </c>
+      <c r="D44" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B45" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="C45" t="s">
-        <v>111</v>
-      </c>
-      <c r="E45" t="s">
-        <v>94</v>
+        <v>122</v>
+      </c>
+      <c r="D45" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B46" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="C46" t="s">
-        <v>112</v>
-      </c>
-      <c r="E46" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" t="s">
-        <v>56</v>
-      </c>
-      <c r="B47" t="s">
-        <v>113</v>
-      </c>
-      <c r="C47" t="s">
-        <v>113</v>
-      </c>
-      <c r="E47" t="s">
-        <v>93</v>
+        <v>123</v>
+      </c>
+      <c r="D46" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1904,13 +1925,13 @@
         <v>56</v>
       </c>
       <c r="B48" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C48" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="E48" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1918,13 +1939,13 @@
         <v>56</v>
       </c>
       <c r="B49" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="C49" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="E49" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1932,13 +1953,13 @@
         <v>56</v>
       </c>
       <c r="B50" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="C50" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="E50" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1946,13 +1967,13 @@
         <v>56</v>
       </c>
       <c r="B51" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="C51" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="E51" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1960,13 +1981,13 @@
         <v>56</v>
       </c>
       <c r="B52" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="C52" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="E52" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1974,13 +1995,13 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="C53" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="E53" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1988,13 +2009,13 @@
         <v>56</v>
       </c>
       <c r="B54" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="C54" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="E54" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2002,13 +2023,13 @@
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C55" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="E55" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2016,13 +2037,13 @@
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="C56" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="E56" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2030,13 +2051,13 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="C57" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="E57" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2044,13 +2065,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="C58" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="E58" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2058,13 +2079,13 @@
         <v>56</v>
       </c>
       <c r="B59" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="C59" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E59" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2072,13 +2093,13 @@
         <v>56</v>
       </c>
       <c r="B60" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="C60" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="E60" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2086,13 +2107,13 @@
         <v>56</v>
       </c>
       <c r="B61" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="C61" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="E61" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2100,13 +2121,13 @@
         <v>56</v>
       </c>
       <c r="B62" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="C62" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="E62" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2114,13 +2135,13 @@
         <v>56</v>
       </c>
       <c r="B63" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="C63" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="E63" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2128,307 +2149,310 @@
         <v>56</v>
       </c>
       <c r="B64" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="C64" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="E64" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65" t="s">
         <v>56</v>
       </c>
       <c r="B65" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="C65" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="E65" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
       <c r="A66" t="s">
         <v>56</v>
       </c>
       <c r="B66" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="C66" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="E66" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
       <c r="A67" t="s">
         <v>56</v>
       </c>
       <c r="B67" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="C67" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="E67" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
       <c r="A68" t="s">
         <v>56</v>
       </c>
       <c r="B68" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C68" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="E68" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
       <c r="A69" t="s">
         <v>56</v>
       </c>
       <c r="B69" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="C69" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="E69" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
       <c r="A70" t="s">
         <v>56</v>
       </c>
       <c r="B70" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="C70" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="E70" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
       <c r="A71" t="s">
         <v>56</v>
       </c>
       <c r="B71" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="C71" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="E71" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
       <c r="A72" t="s">
         <v>56</v>
       </c>
       <c r="B72" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="C72" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="E72" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
       <c r="A73" t="s">
         <v>56</v>
       </c>
       <c r="B73" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="C73" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="E73" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
       <c r="A74" t="s">
         <v>56</v>
       </c>
       <c r="B74" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="C74" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="E74" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
       <c r="A75" t="s">
         <v>56</v>
       </c>
       <c r="B75" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="C75" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="E75" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
       <c r="A76" t="s">
         <v>56</v>
       </c>
       <c r="B76" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="C76" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E76" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
       <c r="A77" t="s">
         <v>56</v>
       </c>
       <c r="B77" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="C77" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="E77" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
       <c r="A78" t="s">
         <v>56</v>
       </c>
       <c r="B78" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="C78" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E78" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" t="s">
+        <v>56</v>
+      </c>
+      <c r="B79" t="s">
+        <v>154</v>
+      </c>
+      <c r="C79" t="s">
+        <v>154</v>
+      </c>
+      <c r="E79" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
       <c r="A80" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="B80">
-        <v>201</v>
-      </c>
-      <c r="C80">
-        <v>201</v>
-      </c>
-      <c r="F80" t="s">
-        <v>109</v>
+        <v>56</v>
+      </c>
+      <c r="B80" t="s">
+        <v>155</v>
+      </c>
+      <c r="C80" t="s">
+        <v>155</v>
+      </c>
+      <c r="E80" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="B81">
-        <v>202</v>
-      </c>
-      <c r="C81">
-        <v>202</v>
-      </c>
-      <c r="F81" t="s">
-        <v>110</v>
+        <v>56</v>
+      </c>
+      <c r="B81" t="s">
+        <v>156</v>
+      </c>
+      <c r="C81" t="s">
+        <v>156</v>
+      </c>
+      <c r="E81" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="B82">
-        <v>203</v>
-      </c>
-      <c r="C82">
-        <v>203</v>
-      </c>
-      <c r="F82" t="s">
-        <v>111</v>
+        <v>56</v>
+      </c>
+      <c r="B82" t="s">
+        <v>157</v>
+      </c>
+      <c r="C82" t="s">
+        <v>157</v>
+      </c>
+      <c r="E82" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="B83">
-        <v>204</v>
-      </c>
-      <c r="C83">
-        <v>204</v>
-      </c>
-      <c r="F83" t="s">
-        <v>113</v>
+        <v>56</v>
+      </c>
+      <c r="B83" t="s">
+        <v>158</v>
+      </c>
+      <c r="C83" t="s">
+        <v>158</v>
+      </c>
+      <c r="E83" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="B84">
-        <v>205</v>
-      </c>
-      <c r="C84">
-        <v>205</v>
-      </c>
-      <c r="F84" t="s">
-        <v>114</v>
+        <v>56</v>
+      </c>
+      <c r="B84" t="s">
+        <v>159</v>
+      </c>
+      <c r="C84" t="s">
+        <v>159</v>
+      </c>
+      <c r="E84" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="85" spans="1:6">
-      <c r="A85" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="B85">
-        <v>206</v>
-      </c>
-      <c r="C85">
-        <v>206</v>
-      </c>
-      <c r="F85" t="s">
-        <v>115</v>
-      </c>
+      <c r="A85" s="11"/>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="11" t="s">
         <v>88</v>
       </c>
       <c r="B86">
-        <v>207</v>
+        <v>301</v>
       </c>
       <c r="C86">
-        <v>207</v>
+        <v>301</v>
       </c>
       <c r="F86" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2436,13 +2460,13 @@
         <v>88</v>
       </c>
       <c r="B87">
-        <v>208</v>
+        <v>302</v>
       </c>
       <c r="C87">
-        <v>208</v>
+        <v>302</v>
       </c>
       <c r="F87" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2450,13 +2474,13 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>209</v>
+        <v>303</v>
       </c>
       <c r="C88">
-        <v>209</v>
+        <v>303</v>
       </c>
       <c r="F88" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2464,13 +2488,13 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>210</v>
+        <v>304</v>
       </c>
       <c r="C89">
-        <v>210</v>
+        <v>304</v>
       </c>
       <c r="F89" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2478,13 +2502,13 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>211</v>
+        <v>305</v>
       </c>
       <c r="C90">
-        <v>211</v>
+        <v>305</v>
       </c>
       <c r="F90" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2492,13 +2516,13 @@
         <v>88</v>
       </c>
       <c r="B91">
-        <v>212</v>
+        <v>306</v>
       </c>
       <c r="C91">
-        <v>212</v>
+        <v>306</v>
       </c>
       <c r="F91" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2506,13 +2530,13 @@
         <v>88</v>
       </c>
       <c r="B92">
-        <v>213</v>
+        <v>307</v>
       </c>
       <c r="C92">
-        <v>213</v>
+        <v>307</v>
       </c>
       <c r="F92" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2520,13 +2544,13 @@
         <v>88</v>
       </c>
       <c r="B93">
-        <v>214</v>
+        <v>308</v>
       </c>
       <c r="C93">
-        <v>214</v>
+        <v>308</v>
       </c>
       <c r="F93" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2534,13 +2558,13 @@
         <v>88</v>
       </c>
       <c r="B94">
-        <v>215</v>
+        <v>309</v>
       </c>
       <c r="C94">
-        <v>215</v>
+        <v>309</v>
       </c>
       <c r="F94" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2548,13 +2572,13 @@
         <v>88</v>
       </c>
       <c r="B95">
-        <v>216</v>
+        <v>310</v>
       </c>
       <c r="C95">
-        <v>216</v>
+        <v>310</v>
       </c>
       <c r="F95" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2562,13 +2586,13 @@
         <v>88</v>
       </c>
       <c r="B96">
-        <v>217</v>
+        <v>311</v>
       </c>
       <c r="C96">
-        <v>217</v>
+        <v>311</v>
       </c>
       <c r="F96" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2576,13 +2600,13 @@
         <v>88</v>
       </c>
       <c r="B97">
-        <v>218</v>
+        <v>312</v>
       </c>
       <c r="C97">
-        <v>218</v>
+        <v>312</v>
       </c>
       <c r="F97" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2590,13 +2614,13 @@
         <v>88</v>
       </c>
       <c r="B98">
-        <v>219</v>
+        <v>313</v>
       </c>
       <c r="C98">
-        <v>219</v>
+        <v>313</v>
       </c>
       <c r="F98" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2604,13 +2628,13 @@
         <v>88</v>
       </c>
       <c r="B99">
-        <v>220</v>
+        <v>314</v>
       </c>
       <c r="C99">
-        <v>220</v>
+        <v>314</v>
       </c>
       <c r="F99" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2618,13 +2642,13 @@
         <v>88</v>
       </c>
       <c r="B100">
-        <v>221</v>
+        <v>315</v>
       </c>
       <c r="C100">
-        <v>221</v>
+        <v>315</v>
       </c>
       <c r="F100" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2632,13 +2656,13 @@
         <v>88</v>
       </c>
       <c r="B101">
-        <v>222</v>
+        <v>316</v>
       </c>
       <c r="C101">
-        <v>222</v>
+        <v>316</v>
       </c>
       <c r="F101" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2646,13 +2670,13 @@
         <v>88</v>
       </c>
       <c r="B102">
-        <v>223</v>
+        <v>317</v>
       </c>
       <c r="C102">
-        <v>223</v>
+        <v>317</v>
       </c>
       <c r="F102" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2660,13 +2684,13 @@
         <v>88</v>
       </c>
       <c r="B103">
-        <v>224</v>
+        <v>318</v>
       </c>
       <c r="C103">
-        <v>224</v>
+        <v>318</v>
       </c>
       <c r="F103" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2674,13 +2698,13 @@
         <v>88</v>
       </c>
       <c r="B104">
-        <v>225</v>
+        <v>319</v>
       </c>
       <c r="C104">
-        <v>225</v>
+        <v>319</v>
       </c>
       <c r="F104" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2688,13 +2712,13 @@
         <v>88</v>
       </c>
       <c r="B105">
-        <v>226</v>
+        <v>320</v>
       </c>
       <c r="C105">
-        <v>226</v>
+        <v>320</v>
       </c>
       <c r="F105" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2702,13 +2726,13 @@
         <v>88</v>
       </c>
       <c r="B106">
-        <v>227</v>
+        <v>321</v>
       </c>
       <c r="C106">
-        <v>227</v>
+        <v>321</v>
       </c>
       <c r="F106" t="s">
-        <v>125</v>
+        <v>150</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2716,13 +2740,13 @@
         <v>88</v>
       </c>
       <c r="B107">
-        <v>228</v>
+        <v>322</v>
       </c>
       <c r="C107">
-        <v>228</v>
+        <v>322</v>
       </c>
       <c r="F107" t="s">
-        <v>112</v>
+        <v>151</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2730,13 +2754,13 @@
         <v>88</v>
       </c>
       <c r="B108">
-        <v>229</v>
+        <v>323</v>
       </c>
       <c r="C108">
-        <v>229</v>
+        <v>323</v>
       </c>
       <c r="F108" t="s">
-        <v>122</v>
+        <v>153</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2744,13 +2768,13 @@
         <v>88</v>
       </c>
       <c r="B109">
-        <v>230</v>
+        <v>324</v>
       </c>
       <c r="C109">
-        <v>230</v>
+        <v>324</v>
       </c>
       <c r="F109" t="s">
-        <v>120</v>
+        <v>154</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2758,13 +2782,13 @@
         <v>88</v>
       </c>
       <c r="B110">
-        <v>231</v>
+        <v>325</v>
       </c>
       <c r="C110">
-        <v>231</v>
+        <v>325</v>
       </c>
       <c r="F110" t="s">
-        <v>127</v>
+        <v>157</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2772,13 +2796,13 @@
         <v>88</v>
       </c>
       <c r="B111">
-        <v>232</v>
+        <v>326</v>
       </c>
       <c r="C111">
-        <v>232</v>
+        <v>326</v>
       </c>
       <c r="F111" t="s">
-        <v>132</v>
+        <v>158</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2786,13 +2810,13 @@
         <v>88</v>
       </c>
       <c r="B112">
-        <v>233</v>
+        <v>327</v>
       </c>
       <c r="C112">
-        <v>233</v>
+        <v>327</v>
       </c>
       <c r="F112" t="s">
-        <v>136</v>
+        <v>159</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2800,13 +2824,13 @@
         <v>88</v>
       </c>
       <c r="B113">
-        <v>234</v>
+        <v>328</v>
       </c>
       <c r="C113">
-        <v>234</v>
+        <v>328</v>
       </c>
       <c r="F113" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2814,13 +2838,13 @@
         <v>88</v>
       </c>
       <c r="B114">
-        <v>235</v>
+        <v>329</v>
       </c>
       <c r="C114">
-        <v>235</v>
+        <v>329</v>
       </c>
       <c r="F114" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2828,13 +2852,111 @@
         <v>88</v>
       </c>
       <c r="B115">
-        <v>236</v>
+        <v>330</v>
       </c>
       <c r="C115">
-        <v>236</v>
+        <v>330</v>
       </c>
       <c r="F115" t="s">
-        <v>134</v>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" t="s">
+        <v>88</v>
+      </c>
+      <c r="B116">
+        <v>331</v>
+      </c>
+      <c r="C116">
+        <v>331</v>
+      </c>
+      <c r="F116" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" t="s">
+        <v>88</v>
+      </c>
+      <c r="B117">
+        <v>332</v>
+      </c>
+      <c r="C117">
+        <v>332</v>
+      </c>
+      <c r="F117" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" t="s">
+        <v>88</v>
+      </c>
+      <c r="B118">
+        <v>333</v>
+      </c>
+      <c r="C118">
+        <v>333</v>
+      </c>
+      <c r="F118" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" t="s">
+        <v>88</v>
+      </c>
+      <c r="B119">
+        <v>334</v>
+      </c>
+      <c r="C119">
+        <v>334</v>
+      </c>
+      <c r="F119" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" t="s">
+        <v>88</v>
+      </c>
+      <c r="B120">
+        <v>335</v>
+      </c>
+      <c r="C120">
+        <v>335</v>
+      </c>
+      <c r="F120" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" t="s">
+        <v>88</v>
+      </c>
+      <c r="B121">
+        <v>336</v>
+      </c>
+      <c r="C121">
+        <v>336</v>
+      </c>
+      <c r="F121" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" t="s">
+        <v>88</v>
+      </c>
+      <c r="B122">
+        <v>337</v>
+      </c>
+      <c r="C122">
+        <v>337</v>
+      </c>
+      <c r="F122" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -2849,8 +2971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2872,10 +2994,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="9" t="s">
-        <v>144</v>
+        <v>101</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="C2" t="s">
         <v>92</v>

--- a/ONCHO/Entomological survey Survey/Nigeria/2023/july/ng_oncho_stop_3_rdtov16_202307_kano.xlsx
+++ b/ONCHO/Entomological survey Survey/Nigeria/2023/july/ng_oncho_stop_3_rdtov16_202307_kano.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Entomological survey Survey\Nigeria\2023\july\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91586BFD-8D5F-4495-9615-01B01927212F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5856761-87AE-4DF6-97C5-6E76D4B7C52C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -327,9 +327,6 @@
     <t>ng_oncho_stop_3_rdtov16_202307_kano</t>
   </si>
   <si>
-    <t>(2023 July) - 10. (Kano) ELISA Form</t>
-  </si>
-  <si>
     <t>KANO</t>
   </si>
   <si>
@@ -502,6 +499,9 @@
   </si>
   <si>
     <t>YADA KUNYA</t>
+  </si>
+  <si>
+    <t>(2023 July) - 3. (Kano) ELISA Form</t>
   </si>
 </sst>
 </file>
@@ -1620,10 +1620,10 @@
         <v>54</v>
       </c>
       <c r="B24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1631,13 +1631,13 @@
         <v>55</v>
       </c>
       <c r="B26" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C26" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1645,13 +1645,13 @@
         <v>55</v>
       </c>
       <c r="B27" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C27" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1659,13 +1659,13 @@
         <v>55</v>
       </c>
       <c r="B28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1673,13 +1673,13 @@
         <v>55</v>
       </c>
       <c r="B29" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C29" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1687,13 +1687,13 @@
         <v>55</v>
       </c>
       <c r="B30" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C30" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1701,13 +1701,13 @@
         <v>55</v>
       </c>
       <c r="B31" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C31" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1715,13 +1715,13 @@
         <v>55</v>
       </c>
       <c r="B32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1729,13 +1729,13 @@
         <v>55</v>
       </c>
       <c r="B33" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C33" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1743,13 +1743,13 @@
         <v>55</v>
       </c>
       <c r="B34" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C34" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1757,13 +1757,13 @@
         <v>55</v>
       </c>
       <c r="B35" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C35" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1771,13 +1771,13 @@
         <v>55</v>
       </c>
       <c r="B36" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C36" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D36" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1785,13 +1785,13 @@
         <v>55</v>
       </c>
       <c r="B37" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C37" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1799,13 +1799,13 @@
         <v>55</v>
       </c>
       <c r="B38" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C38" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D38" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1813,13 +1813,13 @@
         <v>55</v>
       </c>
       <c r="B39" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C39" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D39" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1827,13 +1827,13 @@
         <v>55</v>
       </c>
       <c r="B40" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C40" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D40" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1841,13 +1841,13 @@
         <v>55</v>
       </c>
       <c r="B41" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C41" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D41" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1855,13 +1855,13 @@
         <v>55</v>
       </c>
       <c r="B42" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C42" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D42" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1869,13 +1869,13 @@
         <v>55</v>
       </c>
       <c r="B43" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C43" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D43" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1883,13 +1883,13 @@
         <v>55</v>
       </c>
       <c r="B44" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C44" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D44" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1897,13 +1897,13 @@
         <v>55</v>
       </c>
       <c r="B45" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C45" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D45" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1911,13 +1911,13 @@
         <v>55</v>
       </c>
       <c r="B46" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C46" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D46" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1925,13 +1925,13 @@
         <v>56</v>
       </c>
       <c r="B48" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C48" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E48" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1939,13 +1939,13 @@
         <v>56</v>
       </c>
       <c r="B49" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C49" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E49" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1953,13 +1953,13 @@
         <v>56</v>
       </c>
       <c r="B50" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C50" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1967,13 +1967,13 @@
         <v>56</v>
       </c>
       <c r="B51" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C51" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E51" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1981,13 +1981,13 @@
         <v>56</v>
       </c>
       <c r="B52" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C52" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1995,13 +1995,13 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C53" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E53" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2009,13 +2009,13 @@
         <v>56</v>
       </c>
       <c r="B54" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C54" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E54" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2023,13 +2023,13 @@
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C55" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E55" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2037,13 +2037,13 @@
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C56" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E56" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2051,13 +2051,13 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C57" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E57" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2065,13 +2065,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C58" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E58" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2079,13 +2079,13 @@
         <v>56</v>
       </c>
       <c r="B59" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C59" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E59" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2093,13 +2093,13 @@
         <v>56</v>
       </c>
       <c r="B60" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C60" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E60" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2107,13 +2107,13 @@
         <v>56</v>
       </c>
       <c r="B61" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C61" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E61" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2121,13 +2121,13 @@
         <v>56</v>
       </c>
       <c r="B62" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C62" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E62" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2135,13 +2135,13 @@
         <v>56</v>
       </c>
       <c r="B63" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C63" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E63" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2149,13 +2149,13 @@
         <v>56</v>
       </c>
       <c r="B64" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C64" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E64" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2163,13 +2163,13 @@
         <v>56</v>
       </c>
       <c r="B65" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C65" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E65" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2177,13 +2177,13 @@
         <v>56</v>
       </c>
       <c r="B66" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C66" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E66" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2191,13 +2191,13 @@
         <v>56</v>
       </c>
       <c r="B67" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C67" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E67" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2205,13 +2205,13 @@
         <v>56</v>
       </c>
       <c r="B68" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C68" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E68" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2219,13 +2219,13 @@
         <v>56</v>
       </c>
       <c r="B69" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C69" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E69" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2233,13 +2233,13 @@
         <v>56</v>
       </c>
       <c r="B70" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C70" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E70" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2247,13 +2247,13 @@
         <v>56</v>
       </c>
       <c r="B71" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C71" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E71" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2261,13 +2261,13 @@
         <v>56</v>
       </c>
       <c r="B72" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C72" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E72" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2275,13 +2275,13 @@
         <v>56</v>
       </c>
       <c r="B73" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C73" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E73" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2289,13 +2289,13 @@
         <v>56</v>
       </c>
       <c r="B74" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C74" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E74" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2303,13 +2303,13 @@
         <v>56</v>
       </c>
       <c r="B75" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C75" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E75" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2317,13 +2317,13 @@
         <v>56</v>
       </c>
       <c r="B76" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C76" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E76" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2331,13 +2331,13 @@
         <v>56</v>
       </c>
       <c r="B77" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C77" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E77" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2345,13 +2345,13 @@
         <v>56</v>
       </c>
       <c r="B78" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C78" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E78" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2359,13 +2359,13 @@
         <v>56</v>
       </c>
       <c r="B79" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C79" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E79" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2373,13 +2373,13 @@
         <v>56</v>
       </c>
       <c r="B80" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C80" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E80" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2387,13 +2387,13 @@
         <v>56</v>
       </c>
       <c r="B81" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C81" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E81" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2401,13 +2401,13 @@
         <v>56</v>
       </c>
       <c r="B82" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C82" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E82" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2415,13 +2415,13 @@
         <v>56</v>
       </c>
       <c r="B83" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C83" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E83" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2429,13 +2429,13 @@
         <v>56</v>
       </c>
       <c r="B84" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C84" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E84" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2452,7 +2452,7 @@
         <v>301</v>
       </c>
       <c r="F86" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2466,7 +2466,7 @@
         <v>302</v>
       </c>
       <c r="F87" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2480,7 +2480,7 @@
         <v>303</v>
       </c>
       <c r="F88" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>304</v>
       </c>
       <c r="F89" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2508,7 +2508,7 @@
         <v>305</v>
       </c>
       <c r="F90" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2522,7 +2522,7 @@
         <v>306</v>
       </c>
       <c r="F91" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2536,7 +2536,7 @@
         <v>307</v>
       </c>
       <c r="F92" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2550,7 +2550,7 @@
         <v>308</v>
       </c>
       <c r="F93" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2564,7 +2564,7 @@
         <v>309</v>
       </c>
       <c r="F94" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2578,7 +2578,7 @@
         <v>310</v>
       </c>
       <c r="F95" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2592,7 +2592,7 @@
         <v>311</v>
       </c>
       <c r="F96" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2606,7 +2606,7 @@
         <v>312</v>
       </c>
       <c r="F97" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2620,7 +2620,7 @@
         <v>313</v>
       </c>
       <c r="F98" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>314</v>
       </c>
       <c r="F99" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2648,7 +2648,7 @@
         <v>315</v>
       </c>
       <c r="F100" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2662,7 +2662,7 @@
         <v>316</v>
       </c>
       <c r="F101" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2676,7 +2676,7 @@
         <v>317</v>
       </c>
       <c r="F102" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2690,7 +2690,7 @@
         <v>318</v>
       </c>
       <c r="F103" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2704,7 +2704,7 @@
         <v>319</v>
       </c>
       <c r="F104" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2718,7 +2718,7 @@
         <v>320</v>
       </c>
       <c r="F105" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2732,7 +2732,7 @@
         <v>321</v>
       </c>
       <c r="F106" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2746,7 +2746,7 @@
         <v>322</v>
       </c>
       <c r="F107" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2760,7 +2760,7 @@
         <v>323</v>
       </c>
       <c r="F108" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>324</v>
       </c>
       <c r="F109" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2788,7 +2788,7 @@
         <v>325</v>
       </c>
       <c r="F110" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2802,7 +2802,7 @@
         <v>326</v>
       </c>
       <c r="F111" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2816,7 +2816,7 @@
         <v>327</v>
       </c>
       <c r="F112" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2830,7 +2830,7 @@
         <v>328</v>
       </c>
       <c r="F113" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2844,7 +2844,7 @@
         <v>329</v>
       </c>
       <c r="F114" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2858,7 +2858,7 @@
         <v>330</v>
       </c>
       <c r="F115" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2872,7 +2872,7 @@
         <v>331</v>
       </c>
       <c r="F116" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2886,7 +2886,7 @@
         <v>332</v>
       </c>
       <c r="F117" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2900,7 +2900,7 @@
         <v>333</v>
       </c>
       <c r="F118" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>334</v>
       </c>
       <c r="F119" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2928,7 +2928,7 @@
         <v>335</v>
       </c>
       <c r="F120" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2942,7 +2942,7 @@
         <v>336</v>
       </c>
       <c r="F121" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2956,7 +2956,7 @@
         <v>337</v>
       </c>
       <c r="F122" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -2972,7 +2972,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2994,7 +2994,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="9" t="s">
-        <v>101</v>
+        <v>159</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>100</v>
